--- a/app/src/main/res/raw/household_form.xlsx
+++ b/app/src/main/res/raw/household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11895" tabRatio="500"/>
+    <workbookView windowWidth="30720" windowHeight="13512" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>group</t>
   </si>
@@ -51,7 +51,7 @@
     <t>readonly</t>
   </si>
   <si>
-    <t>skip_condition</t>
+    <t>display_condition</t>
   </si>
   <si>
     <t>header</t>
@@ -105,6 +105,9 @@
     <t>1.5. Código do Chefe de Agregado</t>
   </si>
   <si>
+    <t>${householdName}='PAUL'</t>
+  </si>
+  <si>
     <t>headName</t>
   </si>
   <si>
@@ -148,6 +151,15 @@
   </si>
   <si>
     <t>1.9. Data da Visita</t>
+  </si>
+  <si>
+    <t>modules</t>
+  </si>
+  <si>
+    <t>Access Granted to Modules</t>
+  </si>
+  <si>
+    <t>Acesso permitido ao Módulos</t>
   </si>
   <si>
     <t>value</t>
@@ -177,9 +189,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -201,6 +213,112 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,131 +330,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -349,43 +361,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,139 +523,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,35 +555,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,11 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +616,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,145 +643,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -788,10 +800,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
@@ -1113,22 +1128,22 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="11.1428571428571" customWidth="true"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="true"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="true"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="true"/>
-    <col min="6" max="6" width="9.71428571428571" customWidth="true"/>
-    <col min="7" max="7" width="26.8571428571429" customWidth="true"/>
-    <col min="8" max="8" width="32.4285714285714" customWidth="true"/>
-    <col min="9" max="9" width="21.7142857142857" customWidth="true"/>
-    <col min="10" max="10" width="9.28571428571429" customWidth="true"/>
-    <col min="12" max="12" width="13.8571428571429" customWidth="true"/>
+    <col min="2" max="2" width="11.1388888888889" customWidth="true"/>
+    <col min="3" max="3" width="14.1388888888889" customWidth="true"/>
+    <col min="4" max="4" width="20.1388888888889" customWidth="true"/>
+    <col min="5" max="5" width="11.712962962963" customWidth="true"/>
+    <col min="6" max="6" width="9.71296296296296" customWidth="true"/>
+    <col min="7" max="7" width="44.712962962963" customWidth="true"/>
+    <col min="8" max="8" width="32.4259259259259" customWidth="true"/>
+    <col min="9" max="9" width="21.712962962963" customWidth="true"/>
+    <col min="10" max="10" width="9.28703703703704" customWidth="true"/>
+    <col min="12" max="12" width="22.9444444444444" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1165,7 +1180,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1185,7 +1200,7 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3"/>
       <c r="J2" t="b">
         <v>1</v>
       </c>
@@ -1209,7 +1224,7 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" t="b">
         <v>1</v>
       </c>
@@ -1233,7 +1248,7 @@
       <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3"/>
       <c r="J4" t="b">
         <v>1</v>
       </c>
@@ -1255,12 +1270,12 @@
       <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="3"/>
       <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
         <v>26</v>
@@ -1274,68 +1289,74 @@
       <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="3"/>
       <c r="K6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I7" s="3"/>
       <c r="K7" t="b">
         <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="I8" s="3"/>
       <c r="J8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I9" s="3"/>
       <c r="J9" t="b">
         <v>1</v>
       </c>
@@ -1345,21 +1366,21 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="I10" s="3"/>
       <c r="J10" t="b">
         <v>1</v>
       </c>
@@ -1367,21 +1388,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="I11" s="2"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1"/>
@@ -1435,10 +1476,10 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="true"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="true"/>
+    <col min="2" max="2" width="12.287037037037" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1446,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1470,33 +1511,33 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="true"/>
-    <col min="2" max="2" width="20.4285714285714" customWidth="true"/>
-    <col min="3" max="3" width="23.2857142857143" customWidth="true"/>
+    <col min="2" max="2" width="20.4259259259259" customWidth="true"/>
+    <col min="3" max="3" width="23.287037037037" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/household_form.xlsx
+++ b/app/src/main/res/raw/household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13512" tabRatio="500"/>
+    <workbookView windowWidth="20940" windowHeight="11595" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>group</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>1.5. Código do Chefe de Agregado</t>
-  </si>
-  <si>
-    <t>${householdName}='PAUL'</t>
   </si>
   <si>
     <t>headName</t>
@@ -188,9 +185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -201,18 +198,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,99 +303,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,22 +320,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +577,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -590,6 +602,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +632,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -619,184 +649,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,22 +1125,22 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.1388888888889" customWidth="true"/>
-    <col min="3" max="3" width="14.1388888888889" customWidth="true"/>
-    <col min="4" max="4" width="20.1388888888889" customWidth="true"/>
-    <col min="5" max="5" width="11.712962962963" customWidth="true"/>
-    <col min="6" max="6" width="9.71296296296296" customWidth="true"/>
-    <col min="7" max="7" width="44.712962962963" customWidth="true"/>
-    <col min="8" max="8" width="32.4259259259259" customWidth="true"/>
-    <col min="9" max="9" width="21.712962962963" customWidth="true"/>
-    <col min="10" max="10" width="9.28703703703704" customWidth="true"/>
-    <col min="12" max="12" width="22.9444444444444" customWidth="true"/>
+    <col min="2" max="2" width="11.1428571428571" customWidth="true"/>
+    <col min="3" max="3" width="14.1428571428571" customWidth="true"/>
+    <col min="4" max="4" width="20.1428571428571" customWidth="true"/>
+    <col min="5" max="5" width="11.7142857142857" customWidth="true"/>
+    <col min="6" max="6" width="9.71428571428571" customWidth="true"/>
+    <col min="7" max="7" width="44.7142857142857" customWidth="true"/>
+    <col min="8" max="8" width="32.4285714285714" customWidth="true"/>
+    <col min="9" max="9" width="21.7142857142857" customWidth="true"/>
+    <col min="10" max="10" width="9.28571428571429" customWidth="true"/>
+    <col min="12" max="12" width="22.9428571428571" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1275,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
         <v>26</v>
@@ -1293,46 +1290,40 @@
       <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
       </c>
       <c r="I7" s="3"/>
       <c r="K7" t="b">
         <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" t="b">
@@ -1341,20 +1332,20 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" t="b">
@@ -1366,19 +1357,19 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>42</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" t="b">
@@ -1390,19 +1381,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" t="b">
@@ -1476,10 +1467,10 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="true"/>
-    <col min="2" max="2" width="12.287037037037" customWidth="true"/>
+    <col min="2" max="2" width="12.2857142857143" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1487,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1511,33 +1502,33 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="true"/>
-    <col min="2" max="2" width="20.4259259259259" customWidth="true"/>
-    <col min="3" max="3" width="23.287037037037" customWidth="true"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="true"/>
+    <col min="3" max="3" width="23.2857142857143" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/household_form.xlsx
+++ b/app/src/main/res/raw/household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20940" windowHeight="11595" tabRatio="500"/>
+    <workbookView windowHeight="17670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>group</t>
   </si>
@@ -36,6 +36,9 @@
     <t>options</t>
   </si>
   <si>
+    <t>foreach_count</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
     <t>default_value</t>
   </si>
   <si>
+    <t>calculation</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -52,6 +58,9 @@
   </si>
   <si>
     <t>display_condition</t>
+  </si>
+  <si>
+    <t>display_style</t>
   </si>
   <si>
     <t>header</t>
@@ -185,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -198,6 +207,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -205,6 +229,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -213,8 +296,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,119 +357,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -358,19 +367,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,43 +511,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,115 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,15 +558,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,7 +610,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,176 +658,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -928,7 +937,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -949,9 +958,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="true"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -972,7 +981,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="false"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1042,7 +1051,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1068,7 +1077,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1123,27 +1132,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.1428571428571" customWidth="true"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="true"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="true"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="true"/>
-    <col min="6" max="6" width="9.71428571428571" customWidth="true"/>
-    <col min="7" max="7" width="44.7142857142857" customWidth="true"/>
-    <col min="8" max="8" width="32.4285714285714" customWidth="true"/>
-    <col min="9" max="9" width="21.7142857142857" customWidth="true"/>
-    <col min="10" max="10" width="9.28571428571429" customWidth="true"/>
-    <col min="12" max="12" width="22.9428571428571" customWidth="true"/>
+    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="9.71428571428571" customWidth="1"/>
+    <col min="7" max="7" width="13.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="44.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="32.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="21.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="10.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="9.28571428571429" customWidth="1"/>
+    <col min="14" max="14" width="22.9428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,243 +1188,267 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
-      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1"/>
@@ -1469,8 +1504,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="true"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="true"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1478,13 +1513,13 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1504,31 +1539,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="true"/>
-    <col min="2" max="2" width="20.4285714285714" customWidth="true"/>
-    <col min="3" max="3" width="23.2857142857143" customWidth="true"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="23.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/household_form.xlsx
+++ b/app/src/main/res/raw/household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>options</t>
   </si>
   <si>
-    <t>foreach_count</t>
+    <t>repeat_count</t>
   </si>
   <si>
     <t>label</t>
@@ -194,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -216,60 +216,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,23 +230,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -320,39 +283,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,13 +367,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,49 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,49 +523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,61 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +558,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,28 +638,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,157 +658,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/household_form.xlsx
+++ b/app/src/main/res/raw/household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -194,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -219,6 +219,90 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,28 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -267,98 +329,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,187 +367,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,26 +564,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,17 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,166 +623,186 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,12 +812,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1134,8 +1141,8 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1194,7 +1201,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -1354,9 +1361,7 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
@@ -1447,8 +1452,8 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1"/>

--- a/app/src/main/res/raw/household_form.xlsx
+++ b/app/src/main/res/raw/household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView windowHeight="17670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>group</t>
   </si>
@@ -45,6 +45,9 @@
     <t>label::pt</t>
   </si>
   <si>
+    <t>label::fr</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -66,34 +69,46 @@
     <t>header</t>
   </si>
   <si>
+    <t>householdCode</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>1.1. Household Code</t>
+  </si>
+  <si>
+    <t>1.1. Código do Agregado</t>
+  </si>
+  <si>
+    <t>1.1. Code du Ménage</t>
+  </si>
+  <si>
+    <t>header2</t>
+  </si>
+  <si>
     <t>regionCode</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>1.1. Region Code</t>
-  </si>
-  <si>
-    <t>1.1. Código da Região</t>
+    <t>1.2. Region Code</t>
+  </si>
+  <si>
+    <t>1.2. Código da Região</t>
+  </si>
+  <si>
+    <t>1.2. Code de la Région</t>
   </si>
   <si>
     <t>regionName</t>
   </si>
   <si>
-    <t>1.2. Region Name</t>
-  </si>
-  <si>
-    <t>1.2. Nome da Região</t>
-  </si>
-  <si>
-    <t>householdCode</t>
-  </si>
-  <si>
-    <t>1.3. Household Code</t>
-  </si>
-  <si>
-    <t>1.3. Código do Agregado</t>
+    <t>1.3. Region Name</t>
+  </si>
+  <si>
+    <t>1.3. Nome da Região</t>
+  </si>
+  <si>
+    <t>1.3. Nom de la Région</t>
   </si>
   <si>
     <t>householdName</t>
@@ -105,6 +120,9 @@
     <t>1.4. Nome do Agregado</t>
   </si>
   <si>
+    <t>1.4. Nom du Ménage</t>
+  </si>
+  <si>
     <t>headCode</t>
   </si>
   <si>
@@ -114,6 +132,9 @@
     <t>1.5. Código do Chefe de Agregado</t>
   </si>
   <si>
+    <t>1.5. Code du Chef de Ménage</t>
+  </si>
+  <si>
     <t>headName</t>
   </si>
   <si>
@@ -123,6 +144,9 @@
     <t>1.6. Nome do Chefe de Agregado</t>
   </si>
   <si>
+    <t>1.6. Nom du Chef de Ménage</t>
+  </si>
+  <si>
     <t>gps</t>
   </si>
   <si>
@@ -132,6 +156,9 @@
     <t>1.7. Coordenadas GPS</t>
   </si>
   <si>
+    <t>1.7. Coordonnées GPS</t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -144,7 +171,10 @@
     <t>1.8. Collected By Fieldworker</t>
   </si>
   <si>
-    <t>1.8. Códido do Inquiridor</t>
+    <t>1.8. Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>1.8. Code de l'Enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -159,13 +189,19 @@
     <t>1.9. Data da Visita</t>
   </si>
   <si>
+    <t>1.9. Date de Collecte</t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
     <t>Access Granted to Modules</t>
   </si>
   <si>
-    <t>Acesso permitido ao Módulos</t>
+    <t>Acesso permitido aos Módulos</t>
+  </si>
+  <si>
+    <t>Accès aux Modules autorisé</t>
   </si>
   <si>
     <t>value</t>
@@ -180,6 +216,9 @@
     <t>form_name::pt</t>
   </si>
   <si>
+    <t>form_name::fr</t>
+  </si>
+  <si>
     <t>rawHousehold</t>
   </si>
   <si>
@@ -187,6 +226,9 @@
   </si>
   <si>
     <t>Registo de Novo Agregago</t>
+  </si>
+  <si>
+    <t>Enregistrement d'un nouvel Agrégat</t>
   </si>
 </sst>
 </file>
@@ -194,10 +236,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -222,6 +264,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -231,14 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +294,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -260,13 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -276,7 +327,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,42 +372,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,27 +386,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -373,43 +415,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,43 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,103 +599,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,21 +653,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,11 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,142 +724,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,19 +869,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,29 +1200,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="9.71428571428571" customWidth="1"/>
-    <col min="7" max="7" width="13.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="44.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="32.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="21.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="10.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="9.28571428571429" customWidth="1"/>
-    <col min="14" max="14" width="22.9428571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.1809523809524" customWidth="1"/>
+    <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
+    <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
+    <col min="6" max="6" width="9.72380952380952" customWidth="1"/>
+    <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
+    <col min="8" max="8" width="44.7238095238095" customWidth="1"/>
+    <col min="9" max="10" width="32.4571428571429" customWidth="1"/>
+    <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
+    <col min="12" max="12" width="10.4571428571429" customWidth="1"/>
+    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1250,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1201,259 +1262,292 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" t="b">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="M6" t="b">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="N6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="M7" t="b">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="N7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:13">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1"/>
@@ -1501,30 +1595,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="12.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1536,39 +1633,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="23.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
+    <col min="3" max="3" width="23.2666666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.0857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/household_form.xlsx
+++ b/app/src/main/res/raw/household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500"/>
+    <workbookView xWindow="9210" yWindow="5850" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>group</t>
   </si>
@@ -66,6 +66,9 @@
     <t>display_style</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -190,6 +193,15 @@
   </si>
   <si>
     <t>1.9. Date de Collecte</t>
+  </si>
+  <si>
+    <t>collectedDeviceId</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>Device Id</t>
   </si>
   <si>
     <t>modules</t>
@@ -236,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -287,7 +299,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -303,10 +338,55 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,87 +398,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -415,13 +427,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,19 +481,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,145 +517,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,11 +636,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +656,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +680,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,36 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -724,144 +736,144 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,23 +881,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1220,9 +1240,10 @@
     <col min="12" max="12" width="10.4571428571429" customWidth="1"/>
     <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
     <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1271,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1265,34 +1286,37 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
       <c r="M2" t="b">
         <v>1</v>
       </c>
@@ -1302,25 +1326,25 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1330,25 +1354,25 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1359,22 +1383,22 @@
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1382,22 +1406,22 @@
     <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
       <c r="N6" t="b">
         <v>1</v>
       </c>
@@ -1405,24 +1429,24 @@
     <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="N7" t="b">
         <v>1</v>
       </c>
@@ -1430,47 +1454,47 @@
     <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -1480,25 +1504,25 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -1506,51 +1530,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="11" spans="1:17">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I11" t="s">
+      <c r="E11" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" t="b">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N11" t="b">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1"/>
@@ -1584,6 +1640,9 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -1612,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1649,30 +1708,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/household_form.xlsx
+++ b/app/src/main/res/raw/household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="5850" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -171,13 +171,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>1.8. Collected By Fieldworker</t>
-  </si>
-  <si>
-    <t>1.8. Código do Inquiridor</t>
-  </si>
-  <si>
-    <t>1.8. Code de l'Enquêteur</t>
+    <t>Collected By Fieldworker</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Code de l'Enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -186,13 +186,13 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>1.9. Collected Date</t>
-  </si>
-  <si>
-    <t>1.9. Data da Visita</t>
-  </si>
-  <si>
-    <t>1.9. Date de Collecte</t>
+    <t>Collected Date</t>
+  </si>
+  <si>
+    <t>Data da Visita</t>
+  </si>
+  <si>
+    <t>Date de Collecte</t>
   </si>
   <si>
     <t>collectedDeviceId</t>
@@ -248,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -283,6 +283,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -290,127 +411,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -433,31 +433,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,152 +611,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -636,36 +636,65 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -684,32 +713,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,142 +741,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,29 +943,40 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1223,7 +1296,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A9" sqref="$A9:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1271,7 +1344,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1286,13 +1359,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1315,8 +1388,8 @@
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" t="b">
         <v>1</v>
       </c>
@@ -1343,8 +1416,8 @@
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1371,8 +1444,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1397,8 +1470,8 @@
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1420,8 +1493,8 @@
       <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
       <c r="N6" t="b">
         <v>1</v>
       </c>
@@ -1445,8 +1518,8 @@
       <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
       <c r="N7" t="b">
         <v>1</v>
       </c>
@@ -1465,73 +1538,73 @@
       <c r="I8" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="13" customHeight="1" spans="1:14">
+      <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>52</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" t="b">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="N9" t="b">
+      <c r="N9" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="4" customFormat="1" spans="1:14">
+      <c r="A10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" t="b">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N10" t="b">
+      <c r="N10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="3" t="s">
+    <row r="11" s="4" customFormat="1" spans="1:17">
+      <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="4"/>
@@ -1553,8 +1626,8 @@
       <c r="J11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="b">
         <v>1</v>
@@ -1565,48 +1638,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="5" customFormat="1" spans="1:14">
+      <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" t="b">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N12" t="b">
+      <c r="N12" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1"/>

--- a/app/src/main/res/raw/household_form.xlsx
+++ b/app/src/main/res/raw/household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
+    <workbookView windowWidth="13170" windowHeight="7050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -248,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -259,6 +259,104 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -270,36 +368,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,105 +411,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -427,187 +427,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,6 +698,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -713,11 +722,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,15 +759,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,36 +778,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -795,151 +786,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1369,7 +1369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,9 +1393,6 @@
       <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1607,16 +1604,12 @@
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
         <v>61</v>
       </c>
@@ -1628,12 +1621,9 @@
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="4"/>
       <c r="N11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
       <c r="Q11" s="4" t="b">
         <v>1</v>
       </c>

--- a/app/src/main/res/raw/household_form.xlsx
+++ b/app/src/main/res/raw/household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13170" windowHeight="7050" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>group</t>
   </si>
@@ -48,6 +48,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
     <t>1.1. Code du Ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>header2</t>
   </si>
   <si>
@@ -102,6 +108,9 @@
     <t>1.2. Code de la Région</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2. የክልል ኮድ  </t>
+  </si>
+  <si>
     <t>regionName</t>
   </si>
   <si>
@@ -114,6 +123,9 @@
     <t>1.3. Nom de la Région</t>
   </si>
   <si>
+    <t xml:space="preserve">1.3. የክልል ስም  </t>
+  </si>
+  <si>
     <t>householdName</t>
   </si>
   <si>
@@ -126,6 +138,9 @@
     <t>1.4. Nom du Ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">1.4. የቤተሰብ ስም  </t>
+  </si>
+  <si>
     <t>headCode</t>
   </si>
   <si>
@@ -138,6 +153,9 @@
     <t>1.5. Code du Chef de Ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">1.5. የቤተሰብ አለቃ ኮድ  </t>
+  </si>
+  <si>
     <t>headName</t>
   </si>
   <si>
@@ -150,6 +168,9 @@
     <t>1.6. Nom du Chef de Ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">1.6. የቤተሰብ አለቃ ስም  </t>
+  </si>
+  <si>
     <t>gps</t>
   </si>
   <si>
@@ -162,6 +183,9 @@
     <t>1.7. Coordonnées GPS</t>
   </si>
   <si>
+    <t xml:space="preserve">1.7. የጂፒኤስ መጠንቀቅ ኮኦርዲኔቶች  </t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -180,6 +204,9 @@
     <t>Code de l'Enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመረጃ ባለሞያ ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -195,6 +222,9 @@
     <t>Date de Collecte</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -204,6 +234,9 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -216,6 +249,9 @@
     <t>Accès aux Modules autorisé</t>
   </si>
   <si>
+    <t xml:space="preserve">ለመድረሻዎች የተፈቀደ መዳረሻ </t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -231,6 +267,9 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>rawHousehold</t>
   </si>
   <si>
@@ -241,6 +280,9 @@
   </si>
   <si>
     <t>Enregistrement d'un nouvel Agrégat</t>
+  </si>
+  <si>
+    <t>የቤተሰብ ምዝገባ</t>
   </si>
 </sst>
 </file>
@@ -250,8 +292,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -261,10 +303,63 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,15 +371,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,120 +453,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -427,187 +469,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,11 +740,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,17 +788,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,37 +814,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,148 +840,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,10 +1335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1309,14 +1351,15 @@
     <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
     <col min="8" max="8" width="44.7238095238095" customWidth="1"/>
     <col min="9" max="10" width="32.4571428571429" customWidth="1"/>
-    <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
-    <col min="12" max="12" width="10.4571428571429" customWidth="1"/>
-    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="23" customWidth="1"/>
-    <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="34.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="21.7238095238095" customWidth="1"/>
+    <col min="13" max="13" width="10.4571428571429" customWidth="1"/>
+    <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="17" max="17" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,317 +1402,356 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="L3" s="11"/>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
+      <c r="M3" s="11"/>
       <c r="N3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="L4" s="11"/>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
+      <c r="M4" s="11"/>
       <c r="N4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="L5" s="11"/>
-      <c r="M5" t="b">
+      <c r="M5" s="11"/>
+      <c r="N5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="L6" s="11"/>
-      <c r="N6" t="b">
+      <c r="M6" s="11"/>
+      <c r="O6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="L7" s="11"/>
-      <c r="N7" t="b">
+      <c r="M7" s="11"/>
+      <c r="O7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="L8" s="11"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="13" customHeight="1" spans="1:14">
+      <c r="M8" s="11"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="13" customHeight="1" spans="1:15">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="L9" s="13"/>
-      <c r="M9" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="M9" s="13"/>
       <c r="N9" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:14">
+      <c r="O9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:15">
       <c r="A10" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="L10" s="14"/>
-      <c r="M10" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="M10" s="14"/>
       <c r="N10" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" s="4" customFormat="1" spans="1:17">
+      <c r="O10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:18">
       <c r="A11" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="L11" s="14"/>
-      <c r="N11" s="4" t="b">
+      <c r="M11" s="14"/>
+      <c r="O11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q11" s="4" t="b">
+      <c r="R11" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:14">
+    <row r="12" s="5" customFormat="1" spans="1:15">
       <c r="A12" s="8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="L12" s="15"/>
-      <c r="M12" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="M12" s="15"/>
       <c r="N12" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="O12" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1"/>
@@ -1734,7 +1816,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1755,46 +1837,53 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
     <col min="3" max="3" width="23.2666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.0857142857143" customWidth="1"/>
+    <col min="4" max="4" width="33.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="26.1142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/household_form.xlsx
+++ b/app/src/main/res/raw/household_form.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="203">
   <si>
     <t>group</t>
   </si>
@@ -126,64 +126,124 @@
     <t xml:space="preserve">1.3. የክልል ስም  </t>
   </si>
   <si>
+    <t>householdType</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>1.4. What type of household is this?</t>
+  </si>
+  <si>
+    <t>1.4. Que tipo de Casa/Agregado é este?</t>
+  </si>
+  <si>
+    <t>1.4. Quel type de ménage est-ce?</t>
+  </si>
+  <si>
+    <t>1.4. ይህ ምን ዓይነት ቤተሰብ ነው?</t>
+  </si>
+  <si>
+    <t>institutionType</t>
+  </si>
+  <si>
+    <t>institution_types</t>
+  </si>
+  <si>
+    <t>1.5. What type of institution is this household?</t>
+  </si>
+  <si>
+    <t>1.5. Qual o tipo de instituição?</t>
+  </si>
+  <si>
+    <t>1.5. Quel type d’institution est ce ménage?</t>
+  </si>
+  <si>
+    <t>1.5. ይህ ቤተሰብ ምን ዓይነት ተቋም ነው?</t>
+  </si>
+  <si>
+    <t>${householdType} = 'INSTITUTIONAL'</t>
+  </si>
+  <si>
+    <t>institutionTypeOther</t>
+  </si>
+  <si>
+    <t>1.6. Please specify the type of institution.</t>
+  </si>
+  <si>
+    <t>1.6. Por favor, especifique o tipo de instituição.</t>
+  </si>
+  <si>
+    <t>1.6. Veuillez préciser le type d’institution.</t>
+  </si>
+  <si>
+    <t>1.6. እባክዎ የተቋሙን አይነት ይግለጹ።</t>
+  </si>
+  <si>
+    <t>${institutionType} = 'OTH'</t>
+  </si>
+  <si>
     <t>householdName</t>
   </si>
   <si>
-    <t>1.4. Household Name</t>
-  </si>
-  <si>
-    <t>1.4. Nome do Agregado</t>
-  </si>
-  <si>
-    <t>1.4. Nom du Ménage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4. የቤተሰብ ስም  </t>
+    <t>1.7. Household Name</t>
+  </si>
+  <si>
+    <t>1.7. Nome do Agregado</t>
+  </si>
+  <si>
+    <t>1.7. Nom du Ménage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7. የቤተሰብ ስም  </t>
   </si>
   <si>
     <t>headCode</t>
   </si>
   <si>
-    <t>1.5. Head of Household Code</t>
-  </si>
-  <si>
-    <t>1.5. Código do Chefe de Agregado</t>
-  </si>
-  <si>
-    <t>1.5. Code du Chef de Ménage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5. የቤተሰብ አለቃ ኮድ  </t>
+    <t>1.8. Head of Household Code</t>
+  </si>
+  <si>
+    <t>1.8. Código do Chefe de Agregado</t>
+  </si>
+  <si>
+    <t>1.8. Code du Chef de Ménage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8. የቤተሰብ አለቃ ኮድ  </t>
   </si>
   <si>
     <t>headName</t>
   </si>
   <si>
-    <t>1.6. Head of Household Name</t>
-  </si>
-  <si>
-    <t>1.6. Nome do Chefe de Agregado</t>
-  </si>
-  <si>
-    <t>1.6. Nom du Chef de Ménage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6. የቤተሰብ አለቃ ስም  </t>
+    <t>1.9. Head of Household Name</t>
+  </si>
+  <si>
+    <t>1.9. Nome do Chefe de Agregado</t>
+  </si>
+  <si>
+    <t>1.9. Nom du Chef de Ménage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9. የቤተሰብ አለቃ ስም  </t>
   </si>
   <si>
     <t>gps</t>
   </si>
   <si>
-    <t>1.7. GPS Coordinates</t>
-  </si>
-  <si>
-    <t>1.7. Coordenadas GPS</t>
-  </si>
-  <si>
-    <t>1.7. Coordonnées GPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7. የጂፒኤስ መጠንቀቅ ኮኦርዲኔቶች  </t>
+    <t>2.1. GPS Coordinates</t>
+  </si>
+  <si>
+    <t>2.1. Coordenadas GPS</t>
+  </si>
+  <si>
+    <t>2.1. Coordonnées GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1. የጂፒኤስ መጠንቀቅ ኮኦርዲኔቶች  </t>
   </si>
   <si>
     <t>collected</t>
@@ -253,6 +313,288 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>Regular Household</t>
+  </si>
+  <si>
+    <t>Agregado Normal Regular</t>
+  </si>
+  <si>
+    <t>Ménage Régulier</t>
+  </si>
+  <si>
+    <t>መደበኛ ቤተሰብ</t>
+  </si>
+  <si>
+    <t>INSTITUTIONAL</t>
+  </si>
+  <si>
+    <t>Institutional Household (orphanage, prison, elderly care, etc.)</t>
+  </si>
+  <si>
+    <t>Agregado Institucional (orfanato, prisão, lar de idosos, etc.)</t>
+  </si>
+  <si>
+    <t>Ménage Institutionnel (orphelinat, maison de retraite, etc.)</t>
+  </si>
+  <si>
+    <t>ተቋማዊ ቤተሰብ (እንደ ልጆች ቤት፣ እስር ቤት፣ የሽማግሌዎች እንክብካቤ ወዘተ)</t>
+  </si>
+  <si>
+    <t>ORP</t>
+  </si>
+  <si>
+    <t>Orphanage</t>
+  </si>
+  <si>
+    <t>Orfanato</t>
+  </si>
+  <si>
+    <t>Orphelinat</t>
+  </si>
+  <si>
+    <t>ልጆች ቤት</t>
+  </si>
+  <si>
+    <t>MHF</t>
+  </si>
+  <si>
+    <t>Mental Health Facility</t>
+  </si>
+  <si>
+    <t>Centro de Saúde Mental</t>
+  </si>
+  <si>
+    <t>Centre de Santé Mentale</t>
+  </si>
+  <si>
+    <t>የአእምሮ ጤና ተቋም</t>
+  </si>
+  <si>
+    <t>ECH</t>
+  </si>
+  <si>
+    <t>Elderly Care Home</t>
+  </si>
+  <si>
+    <t>Lar de Idosos</t>
+  </si>
+  <si>
+    <t>Maison de Retraite</t>
+  </si>
+  <si>
+    <t>የሽማግሌዎች እንክብካቤ ቤት</t>
+  </si>
+  <si>
+    <t>BSC</t>
+  </si>
+  <si>
+    <t>Boarding School</t>
+  </si>
+  <si>
+    <t>Internato</t>
+  </si>
+  <si>
+    <t>Internat</t>
+  </si>
+  <si>
+    <t>ትምህርት ቤት ተቀማጭ ቤት (ኢንተርናት)</t>
+  </si>
+  <si>
+    <t>UDM</t>
+  </si>
+  <si>
+    <t>University Dorm</t>
+  </si>
+  <si>
+    <t>Residência Universitária</t>
+  </si>
+  <si>
+    <t>Résidence Universitaire</t>
+  </si>
+  <si>
+    <t>የዩኒቨርሲቲ መኝታ ቤት</t>
+  </si>
+  <si>
+    <t>HST</t>
+  </si>
+  <si>
+    <t>Hostel</t>
+  </si>
+  <si>
+    <t>Albergue</t>
+  </si>
+  <si>
+    <t>Auberge</t>
+  </si>
+  <si>
+    <t>ሆስቴል</t>
+  </si>
+  <si>
+    <t>REL</t>
+  </si>
+  <si>
+    <t>Religious Institution</t>
+  </si>
+  <si>
+    <t>Instituição Religiosa</t>
+  </si>
+  <si>
+    <t>Institution Religieuse</t>
+  </si>
+  <si>
+    <t>ሃይማኖታዊ ተቋም</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>Refugee Camp</t>
+  </si>
+  <si>
+    <t>Campo de Refugiados</t>
+  </si>
+  <si>
+    <t>Camp de Réfugiés</t>
+  </si>
+  <si>
+    <t>የስደተኞች ካምፕ</t>
+  </si>
+  <si>
+    <t>IDC</t>
+  </si>
+  <si>
+    <t>IDP Camp</t>
+  </si>
+  <si>
+    <t>Campo de Deslocados Internos</t>
+  </si>
+  <si>
+    <t>Camp de Déplacés Internes</t>
+  </si>
+  <si>
+    <t>የውስጥ ተከራካሪዎች ካምፕ (IDP)</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>Prison</t>
+  </si>
+  <si>
+    <t>Prisão</t>
+  </si>
+  <si>
+    <t>እስር ቤት</t>
+  </si>
+  <si>
+    <t>JDT</t>
+  </si>
+  <si>
+    <t>Juvenile Detention</t>
+  </si>
+  <si>
+    <t>Centro de Detenção Juvenil</t>
+  </si>
+  <si>
+    <t>Centre de Détention pour Mineurs</t>
+  </si>
+  <si>
+    <t>የወጣት ተቀማጭ ቤት</t>
+  </si>
+  <si>
+    <t>MBR</t>
+  </si>
+  <si>
+    <t>Military Barracks</t>
+  </si>
+  <si>
+    <t>Quartel Militar</t>
+  </si>
+  <si>
+    <t>Caserne Militaire</t>
+  </si>
+  <si>
+    <t>የጦር ሰፈር</t>
+  </si>
+  <si>
+    <t>RHC</t>
+  </si>
+  <si>
+    <t>Rehabilitation Center</t>
+  </si>
+  <si>
+    <t>Centro de Reabilitação</t>
+  </si>
+  <si>
+    <t>Centre de Réhabilitation</t>
+  </si>
+  <si>
+    <t>የእንደገና ማስታገሻ ማዕከል</t>
+  </si>
+  <si>
+    <t>LSH</t>
+  </si>
+  <si>
+    <t>Long Stay Hospital</t>
+  </si>
+  <si>
+    <t>Hospital de Longa Permanência</t>
+  </si>
+  <si>
+    <t>Hôpital de Long Séjour</t>
+  </si>
+  <si>
+    <t>የረጅም ጊዜ ሆስፒታል</t>
+  </si>
+  <si>
+    <t>HMS</t>
+  </si>
+  <si>
+    <t>Homeless Shelter</t>
+  </si>
+  <si>
+    <t>Abrigo para Sem-abrigo</t>
+  </si>
+  <si>
+    <t>Centre d’Hébergement pour Sans-abri</t>
+  </si>
+  <si>
+    <t>የቤት የሌላቸው ግለሰቦች መጠለያ</t>
+  </si>
+  <si>
+    <t>WKP</t>
+  </si>
+  <si>
+    <t>Work Camp</t>
+  </si>
+  <si>
+    <t>Campo de Trabalho</t>
+  </si>
+  <si>
+    <t>Camp de Travail</t>
+  </si>
+  <si>
+    <t>የሥራ ካምፕ</t>
+  </si>
+  <si>
+    <t>OTH</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>ሌላ</t>
   </si>
   <si>
     <t>form_id</t>
@@ -290,9 +632,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -312,21 +654,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -335,6 +662,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -356,21 +691,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -388,7 +708,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,6 +738,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,10 +767,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,7 +783,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,14 +795,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -469,49 +811,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,61 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,67 +973,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,26 +1082,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,17 +1130,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -814,17 +1145,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,157 +1182,163 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1335,10 +1683,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1347,15 +1695,16 @@
     <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
     <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
     <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
-    <col min="6" max="6" width="9.72380952380952" customWidth="1"/>
+    <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
-    <col min="8" max="8" width="44.7238095238095" customWidth="1"/>
-    <col min="9" max="10" width="32.4571428571429" customWidth="1"/>
+    <col min="8" max="8" width="39.6" customWidth="1"/>
+    <col min="9" max="9" width="41.2761904761905" customWidth="1"/>
+    <col min="10" max="10" width="40.5714285714286" customWidth="1"/>
     <col min="11" max="11" width="34.5714285714286" customWidth="1"/>
     <col min="12" max="12" width="21.7238095238095" customWidth="1"/>
     <col min="13" max="13" width="10.4571428571429" customWidth="1"/>
     <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="16" max="16" width="36" customWidth="1"/>
     <col min="17" max="17" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1387,7 +1736,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1405,7 +1754,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="19" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1434,11 +1783,11 @@
       <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
       <c r="N2" t="b">
         <v>1</v>
       </c>
@@ -1462,11 +1811,11 @@
       <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" t="b">
         <v>1</v>
       </c>
@@ -1493,11 +1842,11 @@
       <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" t="b">
         <v>1</v>
       </c>
@@ -1511,220 +1860,217 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="O6" t="b">
+        <v>47</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="O7" t="b">
+        <v>53</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" t="b">
         <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="13" customHeight="1" spans="1:15">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K8" s="13" t="s">
         <v>60</v>
       </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1"/>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
       <c r="J9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="3" t="b">
+      <c r="O9" t="b">
         <v>1</v>
       </c>
-      <c r="O9" s="3" t="b">
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1"/>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="O10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:15">
-      <c r="A10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" spans="1:18">
-      <c r="A11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="4" t="s">
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="D11" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="E11" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="14" t="s">
+      <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="O11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" spans="1:15">
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="13" customHeight="1" spans="1:15">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -1735,32 +2081,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:1">
+    <row r="13" s="6" customFormat="1" spans="1:15">
+      <c r="A13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="1" spans="1:18">
+      <c r="A14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="O14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="7" customFormat="1" spans="1:15">
+      <c r="A15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1"/>
@@ -1788,6 +2218,15 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -1799,24 +2238,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.2666666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="52.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="50.0380952380952" customWidth="1"/>
+    <col min="5" max="5" width="48.4857142857143" customWidth="1"/>
+    <col min="6" max="6" width="29.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1826,6 +2269,389 @@
       </c>
       <c r="E1" t="s">
         <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +2666,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1854,36 +2680,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
